--- a/data/trans_camb/P19_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P19_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-8,08</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9,92</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-5,14</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 2,63</t>
+          <t>-2,36; 7,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; -0,8</t>
+          <t>0,25; 10,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -1,47</t>
+          <t>0,65; 11,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -2,23</t>
+          <t>5,5; 14,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 3,22</t>
+          <t>-8,1; 0,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 1,89</t>
+          <t>-4,26; 3,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,82; -4,82</t>
+          <t>-2,99; 5,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -1,72</t>
+          <t>-1,55; 6,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,74</t>
+          <t>4,54; 12,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -0,78</t>
+          <t>5,28; 13,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; -5,04</t>
+          <t>-10,48; -2,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -3,43</t>
+          <t>-6,51; 1,56</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 5,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 6,69</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 10,87</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 13,22</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; -2,42</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 1,41</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,48%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,5%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,67%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-40,41%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-25,42%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,76%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-16,95%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-36,15%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-27,42%</t>
+          <t>-2,66%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,77%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-5,87%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 13,23</t>
+          <t>-2,94; 10,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -3,01</t>
+          <t>0,31; 13,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,49; -6,61</t>
+          <t>0,74; 15,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,76; -10,42</t>
+          <t>6,77; 19,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 15,17</t>
+          <t>-8,91; 0,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 8,8</t>
+          <t>-4,94; 4,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,4; -23,21</t>
+          <t>-3,75; 7,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,32; -8,64</t>
+          <t>-1,97; 9,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 8,37</t>
+          <t>5,68; 16,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-28,66; -3,65</t>
+          <t>6,56; 18,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-46,83; -23,89</t>
+          <t>-11,83; -2,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-39,03; -16,38</t>
+          <t>-7,66; 1,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 7,23</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 8,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 14,38</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 17,42</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; -2,82</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 1,72</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7,23</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-3,67</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>2,57</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,06</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,89</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-6,01</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-6,1</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,92</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 8,66</t>
+          <t>-6,47; 3,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 4,12</t>
+          <t>-5,09; 5,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 2,69</t>
+          <t>-3,25; 8,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 2,89</t>
+          <t>2,41; 12,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 3,26</t>
+          <t>-9,18; 1,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 2,2</t>
+          <t>-5,52; 6,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -1,53</t>
+          <t>-4,62; 5,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 1,08</t>
+          <t>-1,91; 7,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,31</t>
+          <t>0,73; 9,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,71</t>
+          <t>-0,58; 9,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-8,23; -1,28</t>
+          <t>-2,54; 9,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -0,03</t>
+          <t>-4,14; 9,72</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 3,6</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 4,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 7,63</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 9,26</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 4,04</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 5,95</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,69%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-18,63%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,33%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,82%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,08%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-28,1%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-28,53%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-23,93%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-24,27%</t>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 57,82</t>
+          <t>-7,52; 4,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 28,94</t>
+          <t>-6,05; 6,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 19,24</t>
+          <t>-3,69; 10,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 20,02</t>
+          <t>2,93; 15,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 17,04</t>
+          <t>-9,89; 1,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 12,01</t>
+          <t>-6,23; 8,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,84; -8,63</t>
+          <t>-5,72; 7,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 6,09</t>
+          <t>-2,29; 9,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 24,49</t>
+          <t>0,9; 12,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 10,59</t>
+          <t>-0,67; 12,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-38,77; -6,6</t>
+          <t>-2,99; 11,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 1,4</t>
+          <t>-4,66; 11,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 4,57</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 5,97</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 9,66</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 11,72</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 4,76</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 7,22</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-4,44</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,96</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 9,61</t>
+          <t>-9,96; 7,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 9,23</t>
+          <t>-8,83; 7,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 19,96</t>
+          <t>-19,61; 3,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-18,54; 4,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,68; 9,35</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 11,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 3,89</t>
+          <t>-9,1; 9,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-10,93; 6,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 12,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 17,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 7,0</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 7,55</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; 7,02</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 5,5</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 4,68</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 6,29</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 8,8</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>-6,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-5,08%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,22%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-2,78%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>8,04%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 110,12</t>
+          <t>-11,18; 8,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 108,16</t>
+          <t>-9,69; 9,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 227,64</t>
+          <t>-21,75; 3,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-20,63; 5,59</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-39,88; 59,41</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 70,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,34; 25,77</t>
+          <t>-11,17; 12,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-13,32; 8,83</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 17,35</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 23,06</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-29,25; 52,56</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-22,46; 56,3</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-34,82; 51,43</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-8,65; 6,91</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 5,85</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-10,08; 7,64</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 10,95</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,65</t>
+          <t>-2,83; 4,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 0,47</t>
+          <t>-0,7; 5,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -0,36</t>
+          <t>-0,4; 7,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 0,09</t>
+          <t>3,47; 10,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,71</t>
+          <t>-6,86; -0,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,85</t>
+          <t>-3,7; 2,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -4,59</t>
+          <t>-2,16; 4,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -2,32</t>
+          <t>-1,22; 4,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,52</t>
+          <t>3,78; 10,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,05</t>
+          <t>4,3; 10,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -3,21</t>
+          <t>-6,43; -0,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -2,07</t>
+          <t>-4,51; 2,43</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 3,24</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 4,34</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 7,61</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5,17; 9,7</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; -1,24</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 1,78</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,43%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,86%</t>
+          <t>-0,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-33,95%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-24,85%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-11,42%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>-3,93%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-22,44%</t>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-0,84%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 21,45</t>
+          <t>-3,44; 5,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 3,35</t>
+          <t>-0,85; 7,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -1,22</t>
+          <t>-0,42; 9,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 1,27</t>
+          <t>4,18; 13,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 8,56</t>
+          <t>-7,61; -0,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 4,02</t>
+          <t>-4,25; 3,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,13; -22,71</t>
+          <t>-2,72; 5,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,91; -11,4</t>
+          <t>-1,5; 6,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 7,64</t>
+          <t>4,76; 13,12</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -0,16</t>
+          <t>5,42; 13,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-36,58; -16,06</t>
+          <t>-7,43; -0,05</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-32,24; -10,34</t>
+          <t>-5,31; 2,99</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 4,13</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 5,51</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 9,7</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 12,44</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; -1,43</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 2,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
